--- a/kwitansi_output/detail_kwitansi.xlsx
+++ b/kwitansi_output/detail_kwitansi.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,46 +496,91 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100123038</v>
+        <v>100320018</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Wanriana</t>
+          <t>Miftahul Arifin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BANK BCA</t>
+          <t>Bank BCA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Wanriana</t>
+          <t>Miftahul Arifin</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2100210919</t>
+          <t>6640619943</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>744791.6666666666</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>709791.6666666666</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>45342</v>
+        <v>44945</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>45355</v>
+        <v>44948</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Wanriana</t>
+          <t>Miftahul_Arifin</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>100320019</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Stefanus Hermawan</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Bank BRI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Stefanus Hermawan</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>6640619943</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>35000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1296041.666666667</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1261041.666666667</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>44945</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>44948</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Stefanus_Hermawan</t>
         </is>
       </c>
     </row>

--- a/kwitansi_output/detail_kwitansi.xlsx
+++ b/kwitansi_output/detail_kwitansi.xlsx
@@ -496,91 +496,91 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100320018</v>
+        <v>100623597</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Miftahul Arifin</t>
+          <t>Yusuf Pramudya</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bank BCA</t>
+          <t>Bank Mandiri</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Miftahul Arifin</t>
+          <t>Yusuf Pramudya Hutama</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6640619943</t>
+          <t>1560022694287</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>744791.6666666666</v>
+        <v>2692500</v>
       </c>
       <c r="H2" t="n">
-        <v>709791.6666666666</v>
+        <v>2692500</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>44945</v>
+        <v>45658</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>44948</v>
+        <v>45672</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Miftahul_Arifin</t>
+          <t>Yusuf_Pramudya</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>100320019</v>
+        <v>100623598</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Stefanus Hermawan</t>
+          <t>Fajar Dafa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Bank BRI</t>
+          <t>Bank BCA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Stefanus Hermawan</t>
+          <t xml:space="preserve">Fajar Dafa' Supriyanto </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6640619943</t>
+          <t>5776390247</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>35000</v>
+        <v>102500</v>
       </c>
       <c r="G3" t="n">
-        <v>1296041.666666667</v>
+        <v>2080000</v>
       </c>
       <c r="H3" t="n">
-        <v>1261041.666666667</v>
+        <v>1977500</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>44945</v>
+        <v>45658</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>44948</v>
+        <v>45672</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Stefanus_Hermawan</t>
+          <t>Fajar_Dafa</t>
         </is>
       </c>
     </row>
